--- a/data/rcache.xlsx
+++ b/data/rcache.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_rcache_by_one_pd" sheetId="12" r:id="rId1"/>
     <sheet name="add_rcache_by_multiple_pd" sheetId="16" r:id="rId2"/>
     <sheet name="list_rcache" sheetId="17" r:id="rId3"/>
-    <sheet name="def_cache" sheetId="18" r:id="rId4"/>
-    <sheet name="invalid_setting_parameter" sheetId="8" r:id="rId5"/>
-    <sheet name="invalid_option" sheetId="9" r:id="rId6"/>
-    <sheet name="missing_parameter" sheetId="10" r:id="rId7"/>
+    <sheet name="def_rcache" sheetId="18" r:id="rId4"/>
+    <sheet name="invalid_setting_for_rcache" sheetId="8" r:id="rId5"/>
+    <sheet name="invalid_option_for_rcache" sheetId="9" r:id="rId6"/>
+    <sheet name="missing_parameter_for_rcache" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,122 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l test -p 1 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p test -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t mgmt test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t mgmt -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -l 1 -p 3 -d WWPN test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 3 -p 1 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p 3 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p 5 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid setting 5 (1,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p 3 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t mgmt -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t mgmt -p 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -l 1 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ping -t iscsi -l </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ping -t iscsi -l 2 -p </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t mgmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ping -t mgmt -p </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -l 1 -p 3 -d WWPN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ping -t iscsi -l 2 -p 1 -i </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,43 +91,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rcache -a del -p 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache should minus one pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache should minus two pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a del -p 6,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>rcache test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a add test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a add -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a add -p -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a del -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a add -p 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a del -p 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 0 (1,512)</t>
+  </si>
+  <si>
+    <t>invalid setting test (list|add|del)</t>
+  </si>
+  <si>
+    <t>rcache -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a add </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a add -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a del </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a del -p  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rcache and pd informaiont should be listed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\r\n5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache -a del -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache -a del -p 5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache should minus one pd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache should minus two pd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache</t>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,9 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -625,34 +603,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +645,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -699,34 +677,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -741,16 +719,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -766,19 +744,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -790,18 +768,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -809,33 +790,48 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -846,20 +842,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -867,93 +863,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>10</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>15</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>12</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -963,10 +955,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,57 +977,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>21</v>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1047,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1029,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1077,66 +1037,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>28</v>
+      <c r="A4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>29</v>
+      <c r="A5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>34</v>
+      <c r="A6" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/rcache.xlsx
+++ b/data/rcache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_rcache_by_one_pd" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,57 +170,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>invalid setting 0 (1,512)</t>
+  </si>
+  <si>
+    <t>invalid setting test (list|add|del)</t>
+  </si>
+  <si>
+    <t>rcache -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a add </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a add -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a del </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rcache -a del -p  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache and pd informaiont should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rcache -a del -p 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invalid setting 0 (1,512)</t>
-  </si>
-  <si>
-    <t>invalid setting test (list|add|del)</t>
-  </si>
-  <si>
-    <t>rcache -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rcache -a </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rcache -a add </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rcache -a add -p </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rcache -a del </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rcache -a del -p  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcache and pd informaiont should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
+    <t>Fail to delete Read Cache</t>
+  </si>
+  <si>
+    <t>rcache -a del -p 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -844,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -879,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -906,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -935,14 +942,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -977,15 +989,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -993,7 +1005,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1009,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1029,7 +1041,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1037,7 +1049,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1045,7 +1057,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1053,7 +1065,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1061,7 +1073,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>

--- a/data/rcache.xlsx
+++ b/data/rcache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_rcache_by_one_pd" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>rcache -a del -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,36 +853,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -886,26 +896,35 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -913,50 +932,68 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -967,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,35 +1016,47 @@
     <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1019,63 +1068,82 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/rcache.xlsx
+++ b/data/rcache.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_rcache_by_one_pd" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,14 +224,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail to delete Read Cache</t>
-  </si>
-  <si>
     <t>rcache -a del -p 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcache should be created by multiple pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System don't have read cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System don't have read cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +592,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,13 +665,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
@@ -691,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -855,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -874,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -984,13 +993,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1024,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1070,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1089,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
